--- a/src/analysis_examples/circadb/results_lomb/cosinor_10358595_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10358595_hmcn1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2112380740452846, 0.282262108266766]</t>
+          <t>[0.21176151745036087, 0.28173866486168975]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.206679283744961e-12</v>
+        <v>1.659561377209684e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.206679283744961e-12</v>
+        <v>1.659561377209684e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.496894998106848</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.543843613793728, 0.5887356621186536]</t>
+          <t>[0.5438438161662082, 0.5887354597461734]</t>
         </is>
       </c>
       <c r="U2" t="n">
